--- a/doc/20170612/沿江风光带栏杆下料单_20170611.xlsx
+++ b/doc/20170612/沿江风光带栏杆下料单_20170611.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,55 +152,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>说明：                                                                             1、栏杆材料必须为福建606优质天然花岗岩，需颜色保持一致，无大碳斑、裂缝                                                               2、以上提供数据均为净坑长度需要在栏板两端分别加2公分进槽部分        3、发货时按照尺寸标编号打包                                       4、按照提供&lt;&lt;沿江风光带栏杆布局&gt;&gt;cad图纸雕花     5、斜栏杆坡度为：24度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅（内侧雕花）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰（内侧雕花）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菊（内侧雕花）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷（内侧雕花）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中柱：180*180*1400  共23个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰（内侧雕花）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅（内雕走线图案）</t>
+  </si>
+  <si>
+    <t>兰（内雕走线图案）</t>
+  </si>
+  <si>
+    <t>菊（内雕走线图案）</t>
+  </si>
+  <si>
+    <t>荷（内雕走线图案）</t>
+  </si>
+  <si>
+    <t>边柱：180*180*1400 共6个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角柱 180*180*1400 共2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（100*200）*28组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：                                                                             1、栏杆材料必须为福建606优质天然花岗岩，需颜色保持一致，无大碳斑、裂缝                                                               2、以上提供数据均为净坑长度需要在栏板两端分别加2公分进槽部分        3、发货时按照尺寸标编号打包                                       4、按照提供&lt;&lt;沿江风光带栏杆布局&gt;&gt;cad图纸雕花     5、斜栏杆坡度为：24度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅（内侧雕花）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰（内侧雕花）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菊（内侧雕花）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷（内侧雕花）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅（内调走线图案）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰（内调走线图案）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菊（内调走线图案）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷（内调走线图案）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中柱：180*180*1400  共23个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角柱：180*180*1550 共6个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边柱 180*180*1400 共2个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,6 +341,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -349,9 +352,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -703,7 +703,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:C47"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5"/>
@@ -715,12 +715,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
@@ -747,7 +747,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27">
@@ -761,7 +761,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -775,7 +775,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
@@ -807,7 +807,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
@@ -877,7 +877,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
@@ -933,7 +933,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -959,7 +959,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -971,7 +971,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -983,7 +983,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -995,7 +995,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1045,7 +1045,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1059,7 +1059,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1085,7 +1085,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1099,7 +1099,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.25">
@@ -1110,35 +1110,35 @@
       <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:4" ht="14.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" ht="14.25">
       <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="15"/>
+      <c r="B34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" ht="14.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:3" ht="14.25">
       <c r="A36" s="11"/>
@@ -1148,18 +1148,18 @@
       <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3" ht="14.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="14.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C38" s="10"/>
     </row>
@@ -1169,46 +1169,46 @@
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3" ht="14.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" ht="14.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:3" ht="14.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:3" ht="14.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:3" ht="14.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
